--- a/data/trans_orig/P35_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P35_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>27085</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19106</v>
+        <v>18456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38414</v>
+        <v>37664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04918969391718573</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03469831937950489</v>
+        <v>0.03351957855600268</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06976512903118426</v>
+        <v>0.06840350442017508</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -762,19 +762,19 @@
         <v>12179</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7399</v>
+        <v>7654</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19013</v>
+        <v>18606</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02493563771107325</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01514851656116719</v>
+        <v>0.01567113215905494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0389281514115598</v>
+        <v>0.03809469685627018</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -783,19 +783,19 @@
         <v>39264</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28864</v>
+        <v>28823</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51308</v>
+        <v>51477</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03778871921565601</v>
+        <v>0.03778871921565602</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02778020550330353</v>
+        <v>0.02774057787518363</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04938102032807043</v>
+        <v>0.04954308289407559</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>12451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7166</v>
+        <v>6668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21917</v>
+        <v>21499</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02261327157729513</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01301493409698207</v>
+        <v>0.01210971227744044</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03980458893447355</v>
+        <v>0.0390460176351407</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -833,19 +833,19 @@
         <v>9716</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5082</v>
+        <v>5063</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15712</v>
+        <v>16068</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01989359060899579</v>
+        <v>0.01989359060899578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01040468837868008</v>
+        <v>0.01036587848829014</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03217046906912521</v>
+        <v>0.03289819802185549</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -854,19 +854,19 @@
         <v>22168</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14299</v>
+        <v>14822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32079</v>
+        <v>34399</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02133484566567387</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01376217255424264</v>
+        <v>0.01426502555659221</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0308736087148999</v>
+        <v>0.03310659473255195</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>156799</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>137344</v>
+        <v>135737</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>180694</v>
+        <v>178746</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2847691727695992</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2494356743919361</v>
+        <v>0.246517304863477</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3281654347879295</v>
+        <v>0.3246286064325699</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>172</v>
@@ -904,19 +904,19 @@
         <v>116249</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>100764</v>
+        <v>100622</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>131726</v>
+        <v>133271</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2380144735728693</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2063089538201642</v>
+        <v>0.2060187215470943</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2697040696023609</v>
+        <v>0.2728672510171026</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>340</v>
@@ -925,19 +925,19 @@
         <v>273048</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>245575</v>
+        <v>247223</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>300132</v>
+        <v>300909</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2627914409547776</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2363503497245376</v>
+        <v>0.2379364733286083</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2888579001982057</v>
+        <v>0.2896060239479845</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>354283</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>330097</v>
+        <v>329966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>376353</v>
+        <v>376618</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6434278617359198</v>
+        <v>0.6434278617359199</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5995028977779648</v>
+        <v>0.5992648585142635</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6835107279500349</v>
+        <v>0.6839913736683603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>483</v>
@@ -975,19 +975,19 @@
         <v>350267</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>333513</v>
+        <v>332394</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>366906</v>
+        <v>367095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7171562981070617</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6828528056339782</v>
+        <v>0.6805613093861285</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7512228882295179</v>
+        <v>0.7516113649501216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>827</v>
@@ -996,19 +996,19 @@
         <v>704550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>676697</v>
+        <v>677026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>731855</v>
+        <v>732152</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6780849941638926</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6512781127323187</v>
+        <v>0.6515951688405343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7043646018252708</v>
+        <v>0.7046498177818115</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>41097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30136</v>
+        <v>29741</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54593</v>
+        <v>54359</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08505056834485822</v>
+        <v>0.0850505683448582</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06236603067042763</v>
+        <v>0.061548293217292</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1129784526210276</v>
+        <v>0.1124955895204645</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -1121,19 +1121,19 @@
         <v>23442</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16099</v>
+        <v>16560</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32168</v>
+        <v>32350</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05551325773512236</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03812330999536923</v>
+        <v>0.03921681069959477</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07617706110280181</v>
+        <v>0.07660765816582575</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>73</v>
@@ -1142,19 +1142,19 @@
         <v>64539</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51077</v>
+        <v>51580</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>80525</v>
+        <v>80101</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07127574691676414</v>
+        <v>0.07127574691676411</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05640768160093593</v>
+        <v>0.05696347837589107</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08892926814610007</v>
+        <v>0.08846116615320257</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>18858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11237</v>
+        <v>11758</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29020</v>
+        <v>29733</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03902667973784179</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02325526724365233</v>
+        <v>0.02433281953874481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06005548384782625</v>
+        <v>0.06153256660292243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1192,19 +1192,19 @@
         <v>15672</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10139</v>
+        <v>10001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24224</v>
+        <v>23931</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03711393314560032</v>
+        <v>0.03711393314560033</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02401025950753509</v>
+        <v>0.02368291460171249</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05736523990221244</v>
+        <v>0.05667197080670147</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1213,19 +1213,19 @@
         <v>34531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25272</v>
+        <v>24053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48658</v>
+        <v>47280</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03813466410739244</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02791005282724653</v>
+        <v>0.02656389658261414</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05373701971801045</v>
+        <v>0.05221499639266103</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>129277</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109368</v>
+        <v>110971</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149243</v>
+        <v>148156</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2675364102147579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2263344386787247</v>
+        <v>0.2296534278939962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3088561965239934</v>
+        <v>0.3066066566124309</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>166</v>
@@ -1263,19 +1263,19 @@
         <v>119913</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>104785</v>
+        <v>103064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>135699</v>
+        <v>135702</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2839680816194016</v>
+        <v>0.2839680816194015</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2481420506518337</v>
+        <v>0.2440659586874787</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3213509593508665</v>
+        <v>0.3213564999470725</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>310</v>
@@ -1284,19 +1284,19 @@
         <v>249190</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>226807</v>
+        <v>223528</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>275272</v>
+        <v>275543</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2751993739271509</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2504795551552768</v>
+        <v>0.2468586332608337</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3040030973219947</v>
+        <v>0.304302791680803</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>293980</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>271855</v>
+        <v>270994</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>316562</v>
+        <v>313772</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6083863417025421</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5626003477337849</v>
+        <v>0.5608186005126327</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6551208540087933</v>
+        <v>0.6493456138049001</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>369</v>
@@ -1334,19 +1334,19 @@
         <v>263250</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>244568</v>
+        <v>244289</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>279269</v>
+        <v>279690</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6234047274998759</v>
+        <v>0.6234047274998757</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5791641590788356</v>
+        <v>0.578502696886128</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6613389301320605</v>
+        <v>0.6623370483015436</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>646</v>
@@ -1355,19 +1355,19 @@
         <v>557230</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>529782</v>
+        <v>529219</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>585071</v>
+        <v>585953</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6153902150486926</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5850778392049886</v>
+        <v>0.5844558579387646</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6461371937375947</v>
+        <v>0.647111793661069</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>42004</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29354</v>
+        <v>30463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56139</v>
+        <v>56109</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08906370974844735</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06224099771721465</v>
+        <v>0.06459309731261249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1190360477131796</v>
+        <v>0.1189717933150965</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1480,19 +1480,19 @@
         <v>12105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7623</v>
+        <v>7519</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19080</v>
+        <v>18557</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06456092248177783</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04065755759277818</v>
+        <v>0.04009993853629128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1017636224711421</v>
+        <v>0.09897076755315129</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>62</v>
@@ -1501,19 +1501,19 @@
         <v>54108</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41474</v>
+        <v>42157</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>69525</v>
+        <v>69635</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08209338149272725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06292379168959322</v>
+        <v>0.06396096013867994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1054836876832672</v>
+        <v>0.1056508328487715</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>12151</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6521</v>
+        <v>6807</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20725</v>
+        <v>20205</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02576533791942376</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01382625814443609</v>
+        <v>0.01443403970097975</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04394579268236726</v>
+        <v>0.04284280714813209</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -1551,19 +1551,19 @@
         <v>4794</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2001</v>
+        <v>1927</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10939</v>
+        <v>10065</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.02556909351427303</v>
+        <v>0.02556909351427302</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01066976213103145</v>
+        <v>0.01027854984893849</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05834396812262048</v>
+        <v>0.05368002081425668</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>19</v>
@@ -1572,19 +1572,19 @@
         <v>16945</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10428</v>
+        <v>10402</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>26905</v>
+        <v>26683</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0257095121104102</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01582109384019297</v>
+        <v>0.01578219644636189</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04082020678386124</v>
+        <v>0.04048416436081809</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>127587</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109202</v>
+        <v>108758</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147154</v>
+        <v>146954</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2705335407209497</v>
+        <v>0.2705335407209496</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2315498532720386</v>
+        <v>0.2306082414973389</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3120239499331308</v>
+        <v>0.3115987475849776</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -1622,19 +1622,19 @@
         <v>60594</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50417</v>
+        <v>49854</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70764</v>
+        <v>70856</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3231712354336443</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.268892954900024</v>
+        <v>0.2658937990814933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3774157633409223</v>
+        <v>0.3779032959929758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>242</v>
@@ -1643,19 +1643,19 @@
         <v>188181</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164404</v>
+        <v>168013</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>210210</v>
+        <v>215261</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2855074294781259</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2494331742296735</v>
+        <v>0.2549096990537377</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3189302183149271</v>
+        <v>0.3265943408698908</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>289870</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>268355</v>
+        <v>268761</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>311471</v>
+        <v>310072</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6146374116111794</v>
+        <v>0.6146374116111791</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5690163351856269</v>
+        <v>0.5698772799740435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6604385357344845</v>
+        <v>0.6574729218978157</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>169</v>
@@ -1693,19 +1693,19 @@
         <v>110004</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99333</v>
+        <v>99593</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>120726</v>
+        <v>121130</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5866987485703047</v>
+        <v>0.5866987485703048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5297827705903204</v>
+        <v>0.5311714342596267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.643881918819703</v>
+        <v>0.6460361699161763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>454</v>
@@ -1714,19 +1714,19 @@
         <v>399875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>376127</v>
+        <v>372123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426051</v>
+        <v>422352</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6066896769187368</v>
+        <v>0.6066896769187367</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5706593730073332</v>
+        <v>0.564584919337394</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.646403952114375</v>
+        <v>0.6407919084296337</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>96635</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76618</v>
+        <v>76639</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118859</v>
+        <v>118230</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0853782166236909</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06769353111624202</v>
+        <v>0.06771167806030103</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1050139901359189</v>
+        <v>0.1044577757765065</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -1839,19 +1839,19 @@
         <v>60296</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47781</v>
+        <v>48476</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75829</v>
+        <v>74965</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07014096893552868</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05558239290345031</v>
+        <v>0.05639073677941841</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08821030198708352</v>
+        <v>0.0872043555452256</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -1860,19 +1860,19 @@
         <v>156931</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>133208</v>
+        <v>133486</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>183675</v>
+        <v>183862</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07880091927843405</v>
+        <v>0.07880091927843406</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06688896022125029</v>
+        <v>0.06702842346474806</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09223016681664332</v>
+        <v>0.09232406596180802</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>30310</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20994</v>
+        <v>20572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41543</v>
+        <v>43097</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02677936058544219</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01854874936444235</v>
+        <v>0.0181754462312879</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03670420723361768</v>
+        <v>0.03807702257862438</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -1910,19 +1910,19 @@
         <v>19144</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12943</v>
+        <v>12187</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>27921</v>
+        <v>27336</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02227016403903017</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01505629101835439</v>
+        <v>0.01417683852994844</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03248014783904976</v>
+        <v>0.0317986968887855</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>56</v>
@@ -1931,19 +1931,19 @@
         <v>49454</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37742</v>
+        <v>37597</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>64467</v>
+        <v>63535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02483292464891813</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01895163457572689</v>
+        <v>0.01887868427343899</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03237105747289648</v>
+        <v>0.03190355504519695</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>283156</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>254903</v>
+        <v>255929</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>313903</v>
+        <v>314524</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2501729127842675</v>
+        <v>0.2501729127842674</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2252106620182199</v>
+        <v>0.2261173262545376</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2773378395590613</v>
+        <v>0.2778868179454136</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>308</v>
@@ -1981,19 +1981,19 @@
         <v>203068</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>182379</v>
+        <v>182333</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>223757</v>
+        <v>223793</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2362233707825037</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2121569195313469</v>
+        <v>0.2121026367482926</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2602909120033032</v>
+        <v>0.2603330539049779</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>631</v>
@@ -2002,19 +2002,19 @@
         <v>486224</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>450632</v>
+        <v>450984</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>523018</v>
+        <v>525126</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.244151465377658</v>
+        <v>0.2441514653776581</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2262793721122828</v>
+        <v>0.2264558529931301</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2626268417290072</v>
+        <v>0.2636854190733378</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>721742</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>687011</v>
+        <v>686940</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>757418</v>
+        <v>755071</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6376695100065994</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.606984280681763</v>
+        <v>0.6069219579825221</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6691902753514802</v>
+        <v>0.6671159378928455</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>823</v>
@@ -2052,19 +2052,19 @@
         <v>577135</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>552410</v>
+        <v>552872</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>601091</v>
+        <v>599147</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6713654962429375</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6426037985891931</v>
+        <v>0.6431414902228457</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6992333276938082</v>
+        <v>0.6969723525444046</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1500</v>
@@ -2073,19 +2073,19 @@
         <v>1298876</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1255022</v>
+        <v>1256218</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1339897</v>
+        <v>1337274</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6522146906949897</v>
+        <v>0.6522146906949898</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6301937167427307</v>
+        <v>0.6307943767787116</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6728126067861905</v>
+        <v>0.6714955671879139</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>50896</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38143</v>
+        <v>37085</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73473</v>
+        <v>67907</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.08961155571325743</v>
+        <v>0.08961155571325741</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06715768527666027</v>
+        <v>0.06529524982460845</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1293625271131551</v>
+        <v>0.1195625191061998</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>108</v>
@@ -2198,19 +2198,19 @@
         <v>77617</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>64048</v>
+        <v>64635</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>92317</v>
+        <v>93571</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09349985119466089</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07715476340906417</v>
+        <v>0.07786192872607696</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1112077667256523</v>
+        <v>0.1127190048495082</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>153</v>
@@ -2219,19 +2219,19 @@
         <v>128513</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>107949</v>
+        <v>106951</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>149131</v>
+        <v>150247</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09192026127295748</v>
+        <v>0.09192026127295747</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07721201923233549</v>
+        <v>0.07649786614336607</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1066677503662961</v>
+        <v>0.1074658226714114</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>17162</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10876</v>
+        <v>10859</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25547</v>
+        <v>26295</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03021725779222282</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01914946081851969</v>
+        <v>0.01911994370814559</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04497953917786394</v>
+        <v>0.04629705362401341</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -2269,19 +2269,19 @@
         <v>30538</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22267</v>
+        <v>22276</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40075</v>
+        <v>40262</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03678654626745696</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02682306267905064</v>
+        <v>0.02683396297360042</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0482755715617293</v>
+        <v>0.04850138021186329</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -2290,19 +2290,19 @@
         <v>47700</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36407</v>
+        <v>37331</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60601</v>
+        <v>60345</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0341178237082093</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02604077438636529</v>
+        <v>0.02670116587548405</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04334570449231179</v>
+        <v>0.04316230519450853</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>103194</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86495</v>
+        <v>86779</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122681</v>
+        <v>123265</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1816916690671981</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1522904611362617</v>
+        <v>0.1527896810638115</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2160008649177593</v>
+        <v>0.2170289243152873</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>445</v>
@@ -2340,19 +2340,19 @@
         <v>270307</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>247024</v>
+        <v>249382</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>292768</v>
+        <v>292279</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3256209696598788</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2975734001261013</v>
+        <v>0.3004139194511966</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3526789713166215</v>
+        <v>0.3520890885585204</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>564</v>
@@ -2361,19 +2361,19 @@
         <v>373501</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>344002</v>
+        <v>346128</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>403901</v>
+        <v>403394</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2671508061290049</v>
+        <v>0.2671508061290048</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2460515308822706</v>
+        <v>0.2475720796097602</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2888947349749145</v>
+        <v>0.2885323529705213</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>396711</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>371982</v>
+        <v>372768</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>419875</v>
+        <v>419151</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6984795174273217</v>
+        <v>0.6984795174273215</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6549401123500113</v>
+        <v>0.6563226727999978</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7392638193774597</v>
+        <v>0.7379891051227231</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>692</v>
@@ -2411,19 +2411,19 @@
         <v>451666</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>428433</v>
+        <v>430544</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>477764</v>
+        <v>477685</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5440926328780035</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5161054327022205</v>
+        <v>0.5186479406652879</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.575531209241867</v>
+        <v>0.5754362928686148</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1054</v>
@@ -2432,19 +2432,19 @@
         <v>848377</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>814148</v>
+        <v>813292</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>879532</v>
+        <v>881531</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6068111088898285</v>
+        <v>0.6068111088898284</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5823279792635639</v>
+        <v>0.5817162750132312</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6290951622519466</v>
+        <v>0.630524586410571</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>25074</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13532</v>
+        <v>13570</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42040</v>
+        <v>43408</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1056958172149872</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05704202916829503</v>
+        <v>0.05720073284103946</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.177213349715618</v>
+        <v>0.1829794448751205</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>122</v>
@@ -2557,19 +2557,19 @@
         <v>106684</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86168</v>
+        <v>85994</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>126892</v>
+        <v>129115</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1265134910007487</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1021842015437699</v>
+        <v>0.1019779360204517</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.150478122885717</v>
+        <v>0.1531140650983499</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>133</v>
@@ -2578,19 +2578,19 @@
         <v>131758</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>108773</v>
+        <v>108094</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>160243</v>
+        <v>161231</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1219428388250552</v>
+        <v>0.1219428388250551</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1006707789647018</v>
+        <v>0.1000421610502836</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.148306445843645</v>
+        <v>0.1492208185910968</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>6174</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17913</v>
+        <v>19036</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02602526051109155</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007337233558404788</v>
+        <v>0.007325562246517697</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07550847354695982</v>
+        <v>0.08024443126145295</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>53</v>
@@ -2628,19 +2628,19 @@
         <v>38671</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>29058</v>
+        <v>28201</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>52100</v>
+        <v>50798</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04585929165168873</v>
+        <v>0.04585929165168874</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0344589409022388</v>
+        <v>0.03344306521290483</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06178359942097996</v>
+        <v>0.06023992966484554</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>56</v>
@@ -2649,19 +2649,19 @@
         <v>44845</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>32230</v>
+        <v>32746</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>61210</v>
+        <v>58770</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04150460445087634</v>
+        <v>0.04150460445087632</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02982892200981782</v>
+        <v>0.03030694817945128</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05665070402986508</v>
+        <v>0.05439259632953377</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>19429</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10346</v>
+        <v>10014</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33430</v>
+        <v>33495</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08190083508346478</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04361042701323285</v>
+        <v>0.04221119500924127</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1409191542025093</v>
+        <v>0.1411946894256337</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>329</v>
@@ -2699,19 +2699,19 @@
         <v>208537</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>187111</v>
+        <v>185588</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>229244</v>
+        <v>229577</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2472984380502697</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2218901306536992</v>
+        <v>0.2200844910879032</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2718545510826474</v>
+        <v>0.2722493789029991</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>343</v>
@@ -2720,19 +2720,19 @@
         <v>227966</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>203090</v>
+        <v>200977</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>253289</v>
+        <v>254284</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2109843463974465</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1879619067013549</v>
+        <v>0.1860060863921016</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2344209974461046</v>
+        <v>0.2353424413560539</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>186551</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>167883</v>
+        <v>165012</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>203962</v>
+        <v>202929</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7863780871904565</v>
+        <v>0.7863780871904564</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7076872782248083</v>
+        <v>0.6955828991017892</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8597712247790636</v>
+        <v>0.8554164950467749</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>653</v>
@@ -2770,19 +2770,19 @@
         <v>489367</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>461716</v>
+        <v>462311</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>517848</v>
+        <v>521342</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5803287792972928</v>
+        <v>0.580328779297293</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5475372042565165</v>
+        <v>0.5482426453661494</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6141034898212718</v>
+        <v>0.6182462782275138</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>737</v>
@@ -2791,19 +2791,19 @@
         <v>675918</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>640294</v>
+        <v>645190</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>707069</v>
+        <v>709330</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.6255682103266222</v>
+        <v>0.6255682103266221</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.59259792744611</v>
+        <v>0.5971287259160809</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6543981483007939</v>
+        <v>0.6564910236009592</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>282790</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>248694</v>
+        <v>250119</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>322427</v>
+        <v>323203</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0821474080784497</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07224263014680898</v>
+        <v>0.07265676860963834</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0936613345125001</v>
+        <v>0.09388692131106777</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>371</v>
@@ -2916,19 +2916,19 @@
         <v>292323</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>260484</v>
+        <v>262715</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>327117</v>
+        <v>323475</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08050264972726723</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07173457417059091</v>
+        <v>0.07234916373112883</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09008476813150772</v>
+        <v>0.08908183332695439</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>627</v>
@@ -2937,19 +2937,19 @@
         <v>575113</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>524565</v>
+        <v>529085</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>624178</v>
+        <v>627973</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.08130308620976341</v>
+        <v>0.08130308620976343</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07415713285799377</v>
+        <v>0.07479618033485751</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08823934248104617</v>
+        <v>0.08877585942152429</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>97107</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>79261</v>
+        <v>77580</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>120294</v>
+        <v>117725</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02820845103470356</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02302443821699205</v>
+        <v>0.02253597839437017</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03494412603927576</v>
+        <v>0.0341976589728409</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>162</v>
@@ -2987,19 +2987,19 @@
         <v>118536</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>101487</v>
+        <v>100940</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>140330</v>
+        <v>139544</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03264360081162954</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02794845320131329</v>
+        <v>0.02779786688849587</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03864548210809936</v>
+        <v>0.03842892031005615</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>262</v>
@@ -3008,19 +3008,19 @@
         <v>215643</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>190307</v>
+        <v>187865</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>245423</v>
+        <v>247680</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.03048519518065388</v>
+        <v>0.03048519518065389</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02690348621517231</v>
+        <v>0.02655833455453737</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03469515061064574</v>
+        <v>0.03501419629016352</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>819442</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>768097</v>
+        <v>771839</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>873271</v>
+        <v>869586</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.23803869136152</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2231232771563299</v>
+        <v>0.2242103745230223</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.253675297981885</v>
+        <v>0.2526048942116605</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1515</v>
@@ -3058,19 +3058,19 @@
         <v>978667</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>935384</v>
+        <v>934378</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1026620</v>
+        <v>1025276</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2695150783143744</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2575952757290464</v>
+        <v>0.2573182656568413</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2827205989192392</v>
+        <v>0.2823505791923553</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2430</v>
@@ -3079,19 +3079,19 @@
         <v>1798110</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1724053</v>
+        <v>1721238</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1866224</v>
+        <v>1868625</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.254196810779135</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2437274322317983</v>
+        <v>0.2433295714297863</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2638259913252965</v>
+        <v>0.2641655062453983</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>2243136</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2172638</v>
+        <v>2189303</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2301198</v>
+        <v>2301363</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6516054495253268</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6311265967600246</v>
+        <v>0.6359676781787775</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6684718769749255</v>
+        <v>0.6685195942856579</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3189</v>
@@ -3129,19 +3129,19 @@
         <v>2241690</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2188359</v>
+        <v>2190114</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2292679</v>
+        <v>2291389</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6173386711467289</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6026517693367123</v>
+        <v>0.6031350319374684</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6313806237170263</v>
+        <v>0.6310251990815512</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5218</v>
@@ -3150,19 +3150,19 @@
         <v>4484826</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4404655</v>
+        <v>4401565</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4568142</v>
+        <v>4572897</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6340149078304478</v>
+        <v>0.6340149078304476</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6226812261212401</v>
+        <v>0.6222443169669652</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6457931272023769</v>
+        <v>0.6464653755305528</v>
       </c>
     </row>
     <row r="38">
